--- a/DataBank.xlsx
+++ b/DataBank.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\singh\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB148996-93D1-4EB1-BD89-EBBA471AAF50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A51E651B-F18D-45DA-AE25-5063ED2ED222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="345" windowWidth="28440" windowHeight="14190" xr2:uid="{1D9BDD11-9734-4D2D-B8FD-830CE7C9DD22}"/>
+    <workbookView xWindow="34365" yWindow="0" windowWidth="21975" windowHeight="15105" xr2:uid="{1D9BDD11-9734-4D2D-B8FD-830CE7C9DD22}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$241</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -428,13 +431,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6F609AC-FEB5-4751-90A6-F9986429DF76}">
-  <dimension ref="A1:G241"/>
+  <dimension ref="A1:G324"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G241"/>
+    <sheetView tabSelected="1" topLeftCell="A219" workbookViewId="0">
+      <selection activeCell="A242" sqref="A242:G324"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" customWidth="1"/>
+    <col min="4" max="4" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -467,7 +479,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -476,7 +488,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -559,16 +571,16 @@
         <v>2</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6">
         <v>2</v>
       </c>
       <c r="F6">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -576,7 +588,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -585,13 +597,13 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -608,7 +620,7 @@
         <v>2</v>
       </c>
       <c r="D8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -622,7 +634,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -631,7 +643,7 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -645,22 +657,22 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
       <c r="C10">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E10">
         <v>2</v>
       </c>
       <c r="F10">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -668,7 +680,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -706,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -720,10 +732,10 @@
         <v>2</v>
       </c>
       <c r="C13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -737,7 +749,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B14">
         <v>3</v>
@@ -746,13 +758,13 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E14">
         <v>2</v>
       </c>
       <c r="F14">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -760,7 +772,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -775,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -792,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -806,7 +818,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -815,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E17">
         <v>2</v>
       </c>
       <c r="F17">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -835,10 +847,10 @@
         <v>2</v>
       </c>
       <c r="C18">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D18">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -867,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -890,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -907,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -927,10 +939,10 @@
         <v>2</v>
       </c>
       <c r="C22">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E22">
         <v>2</v>
@@ -944,7 +956,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -973,16 +985,16 @@
         <v>2</v>
       </c>
       <c r="C24">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D24">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E24">
         <v>2</v>
       </c>
       <c r="F24">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -999,7 +1011,7 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E25">
         <v>2</v>
@@ -1013,7 +1025,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -1045,13 +1057,13 @@
         <v>0</v>
       </c>
       <c r="D27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E27">
         <v>2</v>
       </c>
       <c r="F27">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -1059,7 +1071,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B28">
         <v>2</v>
@@ -1068,13 +1080,13 @@
         <v>0</v>
       </c>
       <c r="D28">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E28">
         <v>2</v>
       </c>
       <c r="F28">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -1088,10 +1100,10 @@
         <v>2</v>
       </c>
       <c r="C29">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D29">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E29">
         <v>2</v>
@@ -1105,7 +1117,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B30">
         <v>2</v>
@@ -1128,7 +1140,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -1143,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -1183,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="D33">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E33">
         <v>2</v>
@@ -1197,7 +1209,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -1212,7 +1224,7 @@
         <v>1</v>
       </c>
       <c r="F34">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -1258,7 +1270,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -1281,7 +1293,7 @@
         <v>2</v>
       </c>
       <c r="F37">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -1289,7 +1301,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B38">
         <v>3</v>
@@ -1321,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="D39">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E39">
         <v>2</v>
@@ -1335,22 +1347,22 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B40">
         <v>2</v>
       </c>
       <c r="C40">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D40">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E40">
         <v>2</v>
       </c>
       <c r="F40">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -1358,7 +1370,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B41">
         <v>2</v>
@@ -1373,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -1390,7 +1402,7 @@
         <v>0</v>
       </c>
       <c r="D42">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -1404,7 +1416,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -1413,13 +1425,13 @@
         <v>0</v>
       </c>
       <c r="D43">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E43">
         <v>2</v>
       </c>
       <c r="F43">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -1427,7 +1439,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -1436,13 +1448,13 @@
         <v>0</v>
       </c>
       <c r="D44">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E44">
         <v>0</v>
       </c>
       <c r="F44">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -1450,7 +1462,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B45">
         <v>3</v>
@@ -1465,7 +1477,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -1479,10 +1491,10 @@
         <v>2</v>
       </c>
       <c r="C46">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E46">
         <v>2</v>
@@ -1502,10 +1514,10 @@
         <v>2</v>
       </c>
       <c r="C47">
+        <v>5</v>
+      </c>
+      <c r="D47">
         <v>8</v>
-      </c>
-      <c r="D47">
-        <v>9</v>
       </c>
       <c r="E47">
         <v>2</v>
@@ -1519,7 +1531,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -1534,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -1542,7 +1554,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B49">
         <v>2</v>
@@ -1551,13 +1563,13 @@
         <v>0</v>
       </c>
       <c r="D49">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E49">
         <v>2</v>
       </c>
       <c r="F49">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -1571,10 +1583,10 @@
         <v>2</v>
       </c>
       <c r="C50">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D50">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E50">
         <v>2</v>
@@ -1588,7 +1600,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B51">
         <v>3</v>
@@ -1597,13 +1609,13 @@
         <v>0</v>
       </c>
       <c r="D51">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E51">
         <v>2</v>
       </c>
       <c r="F51">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -1617,10 +1629,10 @@
         <v>2</v>
       </c>
       <c r="C52">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D52">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E52">
         <v>2</v>
@@ -1634,13 +1646,13 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B53">
         <v>4</v>
       </c>
       <c r="C53">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -1666,13 +1678,13 @@
         <v>0</v>
       </c>
       <c r="D54">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E54">
         <v>2</v>
       </c>
       <c r="F54">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -1695,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -1712,13 +1724,13 @@
         <v>0</v>
       </c>
       <c r="D56">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E56">
         <v>2</v>
       </c>
       <c r="F56">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -1735,7 +1747,7 @@
         <v>0</v>
       </c>
       <c r="D57">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E57">
         <v>2</v>
@@ -1758,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="D58">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -1772,16 +1784,16 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B59">
         <v>2</v>
       </c>
       <c r="C59">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D59">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E59">
         <v>2</v>
@@ -1804,7 +1816,7 @@
         <v>0</v>
       </c>
       <c r="D60">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -1818,7 +1830,7 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B61">
         <v>2</v>
@@ -1827,7 +1839,7 @@
         <v>0</v>
       </c>
       <c r="D61">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E61">
         <v>2</v>
@@ -1847,10 +1859,10 @@
         <v>4</v>
       </c>
       <c r="C62">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D62">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E62">
         <v>2</v>
@@ -1864,7 +1876,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B63">
         <v>3</v>
@@ -1873,7 +1885,7 @@
         <v>0</v>
       </c>
       <c r="D63">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E63">
         <v>2</v>
@@ -1893,10 +1905,10 @@
         <v>2</v>
       </c>
       <c r="C64">
+        <v>5</v>
+      </c>
+      <c r="D64">
         <v>8</v>
-      </c>
-      <c r="D64">
-        <v>9</v>
       </c>
       <c r="E64">
         <v>2</v>
@@ -1910,7 +1922,7 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B65">
         <v>3</v>
@@ -1919,13 +1931,13 @@
         <v>0</v>
       </c>
       <c r="D65">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E65">
         <v>0</v>
       </c>
       <c r="F65">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -1962,10 +1974,10 @@
         <v>2</v>
       </c>
       <c r="C67">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D67">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E67">
         <v>2</v>
@@ -1979,16 +1991,16 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B68">
         <v>4</v>
       </c>
       <c r="C68">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D68">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E68">
         <v>2</v>
@@ -2002,7 +2014,7 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B69">
         <v>2</v>
@@ -2011,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="D69">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E69">
         <v>2</v>
@@ -2034,13 +2046,13 @@
         <v>0</v>
       </c>
       <c r="D70">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E70">
         <v>2</v>
       </c>
       <c r="F70">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -2048,7 +2060,7 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B71">
         <v>3</v>
@@ -2057,13 +2069,13 @@
         <v>0</v>
       </c>
       <c r="D71">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E71">
         <v>2</v>
       </c>
       <c r="F71">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -2071,22 +2083,22 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B72">
         <v>2</v>
       </c>
       <c r="C72">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D72">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E72">
         <v>2</v>
       </c>
       <c r="F72">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G72">
         <v>0</v>
@@ -2094,7 +2106,7 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B73">
         <v>2</v>
@@ -2103,13 +2115,13 @@
         <v>0</v>
       </c>
       <c r="D73">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E73">
         <v>2</v>
       </c>
       <c r="F73">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G73">
         <v>1</v>
@@ -2123,10 +2135,10 @@
         <v>2</v>
       </c>
       <c r="C74">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D74">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E74">
         <v>2</v>
@@ -2140,7 +2152,7 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B75">
         <v>2</v>
@@ -2149,7 +2161,7 @@
         <v>0</v>
       </c>
       <c r="D75">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E75">
         <v>2</v>
@@ -2163,16 +2175,16 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B76">
         <v>2</v>
       </c>
       <c r="C76">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E76">
         <v>2</v>
@@ -2186,13 +2198,13 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B77">
         <v>4</v>
       </c>
       <c r="C77">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -2218,7 +2230,7 @@
         <v>0</v>
       </c>
       <c r="D78">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E78">
         <v>2</v>
@@ -2232,7 +2244,7 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2284,10 +2296,10 @@
         <v>4</v>
       </c>
       <c r="C81">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D81">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E81">
         <v>2</v>
@@ -2301,22 +2313,22 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B82">
         <v>2</v>
       </c>
       <c r="C82">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D82">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E82">
         <v>0</v>
       </c>
       <c r="F82">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G82">
         <v>0</v>
@@ -2324,7 +2336,7 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B83">
         <v>3</v>
@@ -2333,13 +2345,13 @@
         <v>0</v>
       </c>
       <c r="D83">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E83">
         <v>0</v>
       </c>
       <c r="F83">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -2356,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="D84">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E84">
         <v>2</v>
@@ -2370,16 +2382,16 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B85">
         <v>2</v>
       </c>
       <c r="C85">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D85">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E85">
         <v>2</v>
@@ -2393,7 +2405,7 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B86">
         <v>2</v>
@@ -2402,13 +2414,13 @@
         <v>0</v>
       </c>
       <c r="D86">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E86">
         <v>1</v>
       </c>
       <c r="F86">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -2416,7 +2428,7 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -2425,13 +2437,13 @@
         <v>0</v>
       </c>
       <c r="D87">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E87">
         <v>2</v>
       </c>
       <c r="F87">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G87">
         <v>1</v>
@@ -2439,7 +2451,7 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B88">
         <v>2</v>
@@ -2448,7 +2460,7 @@
         <v>0</v>
       </c>
       <c r="D88">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E88">
         <v>2</v>
@@ -2494,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="D90">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -2508,7 +2520,7 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B91">
         <v>2</v>
@@ -2531,16 +2543,16 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B92">
         <v>2</v>
       </c>
       <c r="C92">
+        <v>6</v>
+      </c>
+      <c r="D92">
         <v>9</v>
-      </c>
-      <c r="D92">
-        <v>10</v>
       </c>
       <c r="E92">
         <v>1</v>
@@ -2569,7 +2581,7 @@
         <v>1</v>
       </c>
       <c r="F93">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G93">
         <v>1</v>
@@ -2609,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="D95">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E95">
         <v>2</v>
@@ -2646,7 +2658,7 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2661,7 +2673,7 @@
         <v>2</v>
       </c>
       <c r="F97">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G97">
         <v>0</v>
@@ -2684,7 +2696,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G98">
         <v>1</v>
@@ -2692,7 +2704,7 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B99">
         <v>2</v>
@@ -2701,7 +2713,7 @@
         <v>0</v>
       </c>
       <c r="D99">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E99">
         <v>2</v>
@@ -2715,7 +2727,7 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B100">
         <v>1</v>
@@ -2724,13 +2736,13 @@
         <v>0</v>
       </c>
       <c r="D100">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E100">
         <v>1</v>
       </c>
       <c r="F100">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G100">
         <v>0</v>
@@ -2747,7 +2759,7 @@
         <v>0</v>
       </c>
       <c r="D101">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E101">
         <v>2</v>
@@ -2761,7 +2773,7 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B102">
         <v>2</v>
@@ -2770,7 +2782,7 @@
         <v>0</v>
       </c>
       <c r="D102">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E102">
         <v>2</v>
@@ -2807,7 +2819,7 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -2816,13 +2828,13 @@
         <v>0</v>
       </c>
       <c r="D104">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E104">
         <v>2</v>
       </c>
       <c r="F104">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G104">
         <v>0</v>
@@ -2830,7 +2842,7 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B105">
         <v>3</v>
@@ -2862,7 +2874,7 @@
         <v>0</v>
       </c>
       <c r="D106">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E106">
         <v>2</v>
@@ -2876,7 +2888,7 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B107">
         <v>2</v>
@@ -2885,7 +2897,7 @@
         <v>0</v>
       </c>
       <c r="D107">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E107">
         <v>2</v>
@@ -2908,7 +2920,7 @@
         <v>0</v>
       </c>
       <c r="D108">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E108">
         <v>2</v>
@@ -2922,16 +2934,16 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B109">
         <v>4</v>
       </c>
       <c r="C109">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D109">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E109">
         <v>2</v>
@@ -2960,7 +2972,7 @@
         <v>2</v>
       </c>
       <c r="F110">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G110">
         <v>0</v>
@@ -2974,16 +2986,16 @@
         <v>2</v>
       </c>
       <c r="C111">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D111">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E111">
         <v>1</v>
       </c>
       <c r="F111">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -2991,7 +3003,7 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B112">
         <v>2</v>
@@ -3000,7 +3012,7 @@
         <v>1</v>
       </c>
       <c r="D112">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E112">
         <v>0</v>
@@ -3023,7 +3035,7 @@
         <v>0</v>
       </c>
       <c r="D113">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E113">
         <v>0</v>
@@ -3037,7 +3049,7 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -3046,13 +3058,13 @@
         <v>0</v>
       </c>
       <c r="D114">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E114">
         <v>2</v>
       </c>
       <c r="F114">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -3069,13 +3081,13 @@
         <v>0</v>
       </c>
       <c r="D115">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E115">
         <v>2</v>
       </c>
       <c r="F115">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -3115,7 +3127,7 @@
         <v>0</v>
       </c>
       <c r="D117">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E117">
         <v>2</v>
@@ -3138,13 +3150,13 @@
         <v>0</v>
       </c>
       <c r="D118">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E118">
         <v>2</v>
       </c>
       <c r="F118">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -3161,13 +3173,13 @@
         <v>1</v>
       </c>
       <c r="D119">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E119">
         <v>0</v>
       </c>
       <c r="F119">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -3184,7 +3196,7 @@
         <v>2</v>
       </c>
       <c r="D120">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E120">
         <v>2</v>
@@ -3198,7 +3210,7 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B121">
         <v>0</v>
@@ -3207,13 +3219,13 @@
         <v>0</v>
       </c>
       <c r="D121">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E121">
         <v>2</v>
       </c>
       <c r="F121">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G121">
         <v>1</v>
@@ -3221,7 +3233,7 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B122">
         <v>2</v>
@@ -3230,7 +3242,7 @@
         <v>0</v>
       </c>
       <c r="D122">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E122">
         <v>2</v>
@@ -3244,7 +3256,7 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B123">
         <v>1</v>
@@ -3276,7 +3288,7 @@
         <v>0</v>
       </c>
       <c r="D124">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E124">
         <v>1</v>
@@ -3299,13 +3311,13 @@
         <v>0</v>
       </c>
       <c r="D125">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E125">
         <v>2</v>
       </c>
       <c r="F125">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G125">
         <v>0</v>
@@ -3313,7 +3325,7 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -3328,7 +3340,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G126">
         <v>0</v>
@@ -3342,7 +3354,7 @@
         <v>2</v>
       </c>
       <c r="C127">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D127">
         <v>0</v>
@@ -3351,7 +3363,7 @@
         <v>1</v>
       </c>
       <c r="F127">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G127">
         <v>1</v>
@@ -3365,16 +3377,16 @@
         <v>2</v>
       </c>
       <c r="C128">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D128">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E128">
         <v>2</v>
       </c>
       <c r="F128">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -3382,7 +3394,7 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -3391,7 +3403,7 @@
         <v>0</v>
       </c>
       <c r="D129">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E129">
         <v>0</v>
@@ -3414,13 +3426,13 @@
         <v>1</v>
       </c>
       <c r="D130">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E130">
         <v>0</v>
       </c>
       <c r="F130">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -3437,7 +3449,7 @@
         <v>0</v>
       </c>
       <c r="D131">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E131">
         <v>0</v>
@@ -3451,7 +3463,7 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B132">
         <v>2</v>
@@ -3460,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="D132">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E132">
         <v>2</v>
@@ -3474,7 +3486,7 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B133">
         <v>3</v>
@@ -3489,7 +3501,7 @@
         <v>2</v>
       </c>
       <c r="F133">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G133">
         <v>0</v>
@@ -3497,7 +3509,7 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B134">
         <v>0</v>
@@ -3506,13 +3518,13 @@
         <v>0</v>
       </c>
       <c r="D134">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E134">
         <v>2</v>
       </c>
       <c r="F134">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G134">
         <v>1</v>
@@ -3520,7 +3532,7 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B135">
         <v>2</v>
@@ -3529,13 +3541,13 @@
         <v>0</v>
       </c>
       <c r="D135">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E135">
         <v>1</v>
       </c>
       <c r="F135">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -3543,7 +3555,7 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -3575,13 +3587,13 @@
         <v>0</v>
       </c>
       <c r="D137">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E137">
         <v>0</v>
       </c>
       <c r="F137">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G137">
         <v>1</v>
@@ -3589,7 +3601,7 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B138">
         <v>2</v>
@@ -3598,13 +3610,13 @@
         <v>0</v>
       </c>
       <c r="D138">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E138">
         <v>2</v>
       </c>
       <c r="F138">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G138">
         <v>0</v>
@@ -3621,13 +3633,13 @@
         <v>0</v>
       </c>
       <c r="D139">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E139">
         <v>2</v>
       </c>
       <c r="F139">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G139">
         <v>1</v>
@@ -3635,16 +3647,16 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B140">
         <v>2</v>
       </c>
       <c r="C140">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D140">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E140">
         <v>1</v>
@@ -3658,7 +3670,7 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B141">
         <v>3</v>
@@ -3687,10 +3699,10 @@
         <v>2</v>
       </c>
       <c r="C142">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D142">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E142">
         <v>2</v>
@@ -3713,7 +3725,7 @@
         <v>0</v>
       </c>
       <c r="D143">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E143">
         <v>2</v>
@@ -3736,13 +3748,13 @@
         <v>0</v>
       </c>
       <c r="D144">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E144">
         <v>0</v>
       </c>
       <c r="F144">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G144">
         <v>0</v>
@@ -3750,7 +3762,7 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B145">
         <v>2</v>
@@ -3765,7 +3777,7 @@
         <v>2</v>
       </c>
       <c r="F145">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G145">
         <v>0</v>
@@ -3773,7 +3785,7 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -3782,13 +3794,13 @@
         <v>0</v>
       </c>
       <c r="D146">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E146">
         <v>2</v>
       </c>
       <c r="F146">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G146">
         <v>1</v>
@@ -3796,7 +3808,7 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -3842,13 +3854,13 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B149">
         <v>4</v>
       </c>
       <c r="C149">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D149">
         <v>0</v>
@@ -3865,7 +3877,7 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B150">
         <v>2</v>
@@ -3880,7 +3892,7 @@
         <v>2</v>
       </c>
       <c r="F150">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G150">
         <v>1</v>
@@ -3894,16 +3906,16 @@
         <v>2</v>
       </c>
       <c r="C151">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D151">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E151">
         <v>0</v>
       </c>
       <c r="F151">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G151">
         <v>0</v>
@@ -3920,13 +3932,13 @@
         <v>0</v>
       </c>
       <c r="D152">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E152">
         <v>2</v>
       </c>
       <c r="F152">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G152">
         <v>1</v>
@@ -3934,7 +3946,7 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -3943,13 +3955,13 @@
         <v>0</v>
       </c>
       <c r="D153">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E153">
         <v>2</v>
       </c>
       <c r="F153">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G153">
         <v>1</v>
@@ -3957,7 +3969,7 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B154">
         <v>2</v>
@@ -3966,7 +3978,7 @@
         <v>1</v>
       </c>
       <c r="D154">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E154">
         <v>0</v>
@@ -3989,13 +4001,13 @@
         <v>0</v>
       </c>
       <c r="D155">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E155">
         <v>2</v>
       </c>
       <c r="F155">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G155">
         <v>0</v>
@@ -4003,7 +4015,7 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B156">
         <v>2</v>
@@ -4012,7 +4024,7 @@
         <v>2</v>
       </c>
       <c r="D156">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E156">
         <v>2</v>
@@ -4026,7 +4038,7 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B157">
         <v>2</v>
@@ -4058,13 +4070,13 @@
         <v>0</v>
       </c>
       <c r="D158">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E158">
         <v>2</v>
       </c>
       <c r="F158">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G158">
         <v>1</v>
@@ -4072,7 +4084,7 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B159">
         <v>1</v>
@@ -4081,7 +4093,7 @@
         <v>0</v>
       </c>
       <c r="D159">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E159">
         <v>1</v>
@@ -4095,7 +4107,7 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B160">
         <v>2</v>
@@ -4104,13 +4116,13 @@
         <v>0</v>
       </c>
       <c r="D160">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E160">
         <v>2</v>
       </c>
       <c r="F160">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G160">
         <v>1</v>
@@ -4118,7 +4130,7 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B161">
         <v>2</v>
@@ -4147,7 +4159,7 @@
         <v>4</v>
       </c>
       <c r="C162">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D162">
         <v>0</v>
@@ -4156,7 +4168,7 @@
         <v>1</v>
       </c>
       <c r="F162">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G162">
         <v>0</v>
@@ -4164,22 +4176,22 @@
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B163">
         <v>2</v>
       </c>
       <c r="C163">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D163">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E163">
         <v>0</v>
       </c>
       <c r="F163">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G163">
         <v>0</v>
@@ -4202,7 +4214,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G164">
         <v>1</v>
@@ -4210,16 +4222,16 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B165">
         <v>2</v>
       </c>
       <c r="C165">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D165">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E165">
         <v>2</v>
@@ -4233,7 +4245,7 @@
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B166">
         <v>2</v>
@@ -4256,7 +4268,7 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B167">
         <v>0</v>
@@ -4285,7 +4297,7 @@
         <v>4</v>
       </c>
       <c r="C168">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D168">
         <v>0</v>
@@ -4294,7 +4306,7 @@
         <v>1</v>
       </c>
       <c r="F168">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G168">
         <v>0</v>
@@ -4348,7 +4360,7 @@
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B171">
         <v>3</v>
@@ -4357,13 +4369,13 @@
         <v>0</v>
       </c>
       <c r="D171">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E171">
         <v>2</v>
       </c>
       <c r="F171">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G171">
         <v>1</v>
@@ -4371,7 +4383,7 @@
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B172">
         <v>2</v>
@@ -4380,7 +4392,7 @@
         <v>0</v>
       </c>
       <c r="D172">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E172">
         <v>2</v>
@@ -4394,7 +4406,7 @@
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B173">
         <v>0</v>
@@ -4417,7 +4429,7 @@
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B174">
         <v>2</v>
@@ -4432,7 +4444,7 @@
         <v>1</v>
       </c>
       <c r="F174">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G174">
         <v>1</v>
@@ -4440,16 +4452,16 @@
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B175">
         <v>2</v>
       </c>
       <c r="C175">
+        <v>5</v>
+      </c>
+      <c r="D175">
         <v>8</v>
-      </c>
-      <c r="D175">
-        <v>9</v>
       </c>
       <c r="E175">
         <v>2</v>
@@ -4469,16 +4481,16 @@
         <v>2</v>
       </c>
       <c r="C176">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D176">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E176">
         <v>2</v>
       </c>
       <c r="F176">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G176">
         <v>0</v>
@@ -4486,7 +4498,7 @@
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B177">
         <v>2</v>
@@ -4541,7 +4553,7 @@
         <v>0</v>
       </c>
       <c r="D179">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E179">
         <v>0</v>
@@ -4564,7 +4576,7 @@
         <v>0</v>
       </c>
       <c r="D180">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E180">
         <v>2</v>
@@ -4610,13 +4622,13 @@
         <v>0</v>
       </c>
       <c r="D182">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E182">
         <v>2</v>
       </c>
       <c r="F182">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G182">
         <v>0</v>
@@ -4633,13 +4645,13 @@
         <v>0</v>
       </c>
       <c r="D183">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E183">
         <v>0</v>
       </c>
       <c r="F183">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G183">
         <v>0</v>
@@ -4653,16 +4665,16 @@
         <v>2</v>
       </c>
       <c r="C184">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D184">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E184">
         <v>2</v>
       </c>
       <c r="F184">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G184">
         <v>1</v>
@@ -4670,16 +4682,16 @@
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B185">
         <v>2</v>
       </c>
       <c r="C185">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D185">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E185">
         <v>2</v>
@@ -4693,7 +4705,7 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B186">
         <v>2</v>
@@ -4702,7 +4714,7 @@
         <v>0</v>
       </c>
       <c r="D186">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E186">
         <v>2</v>
@@ -4768,16 +4780,16 @@
         <v>2</v>
       </c>
       <c r="C189">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D189">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E189">
         <v>2</v>
       </c>
       <c r="F189">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G189">
         <v>0</v>
@@ -4785,7 +4797,7 @@
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B190">
         <v>1</v>
@@ -4817,13 +4829,13 @@
         <v>0</v>
       </c>
       <c r="D191">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E191">
         <v>2</v>
       </c>
       <c r="F191">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G191">
         <v>1</v>
@@ -4831,16 +4843,16 @@
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B192">
         <v>4</v>
       </c>
       <c r="C192">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D192">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E192">
         <v>1</v>
@@ -4860,10 +4872,10 @@
         <v>4</v>
       </c>
       <c r="C193">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D193">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E193">
         <v>2</v>
@@ -4877,7 +4889,7 @@
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B194">
         <v>0</v>
@@ -4886,13 +4898,13 @@
         <v>0</v>
       </c>
       <c r="D194">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E194">
         <v>0</v>
       </c>
       <c r="F194">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G194">
         <v>0</v>
@@ -4909,7 +4921,7 @@
         <v>0</v>
       </c>
       <c r="D195">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E195">
         <v>2</v>
@@ -4923,7 +4935,7 @@
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B196">
         <v>2</v>
@@ -4955,13 +4967,13 @@
         <v>0</v>
       </c>
       <c r="D197">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E197">
         <v>2</v>
       </c>
       <c r="F197">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G197">
         <v>0</v>
@@ -4969,7 +4981,7 @@
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B198">
         <v>3</v>
@@ -4978,7 +4990,7 @@
         <v>0</v>
       </c>
       <c r="D198">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E198">
         <v>0</v>
@@ -4992,7 +5004,7 @@
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B199">
         <v>3</v>
@@ -5001,7 +5013,7 @@
         <v>0</v>
       </c>
       <c r="D199">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E199">
         <v>2</v>
@@ -5015,22 +5027,22 @@
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B200">
         <v>2</v>
       </c>
       <c r="C200">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D200">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E200">
         <v>2</v>
       </c>
       <c r="F200">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G200">
         <v>0</v>
@@ -5038,7 +5050,7 @@
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B201">
         <v>0</v>
@@ -5047,13 +5059,13 @@
         <v>0</v>
       </c>
       <c r="D201">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E201">
         <v>0</v>
       </c>
       <c r="F201">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G201">
         <v>1</v>
@@ -5061,7 +5073,7 @@
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B202">
         <v>3</v>
@@ -5070,13 +5082,13 @@
         <v>0</v>
       </c>
       <c r="D202">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E202">
         <v>2</v>
       </c>
       <c r="F202">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G202">
         <v>0</v>
@@ -5093,7 +5105,7 @@
         <v>0</v>
       </c>
       <c r="D203">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E203">
         <v>0</v>
@@ -5116,7 +5128,7 @@
         <v>3</v>
       </c>
       <c r="D204">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E204">
         <v>2</v>
@@ -5130,7 +5142,7 @@
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B205">
         <v>2</v>
@@ -5139,7 +5151,7 @@
         <v>0</v>
       </c>
       <c r="D205">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E205">
         <v>2</v>
@@ -5153,7 +5165,7 @@
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B206">
         <v>2</v>
@@ -5162,7 +5174,7 @@
         <v>3</v>
       </c>
       <c r="D206">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E206">
         <v>2</v>
@@ -5185,7 +5197,7 @@
         <v>0</v>
       </c>
       <c r="D207">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E207">
         <v>2</v>
@@ -5199,7 +5211,7 @@
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B208">
         <v>1</v>
@@ -5231,7 +5243,7 @@
         <v>0</v>
       </c>
       <c r="D209">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E209">
         <v>2</v>
@@ -5245,7 +5257,7 @@
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B210">
         <v>1</v>
@@ -5260,7 +5272,7 @@
         <v>1</v>
       </c>
       <c r="F210">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G210">
         <v>1</v>
@@ -5277,7 +5289,7 @@
         <v>0</v>
       </c>
       <c r="D211">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E211">
         <v>1</v>
@@ -5300,7 +5312,7 @@
         <v>0</v>
       </c>
       <c r="D212">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E212">
         <v>2</v>
@@ -5320,10 +5332,10 @@
         <v>2</v>
       </c>
       <c r="C213">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D213">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E213">
         <v>2</v>
@@ -5337,7 +5349,7 @@
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B214">
         <v>0</v>
@@ -5346,7 +5358,7 @@
         <v>0</v>
       </c>
       <c r="D214">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E214">
         <v>0</v>
@@ -5360,7 +5372,7 @@
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B215">
         <v>2</v>
@@ -5375,7 +5387,7 @@
         <v>2</v>
       </c>
       <c r="F215">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G215">
         <v>1</v>
@@ -5389,10 +5401,10 @@
         <v>2</v>
       </c>
       <c r="C216">
+        <v>5</v>
+      </c>
+      <c r="D216">
         <v>8</v>
-      </c>
-      <c r="D216">
-        <v>9</v>
       </c>
       <c r="E216">
         <v>2</v>
@@ -5406,13 +5418,13 @@
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B217">
         <v>2</v>
       </c>
       <c r="C217">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D217">
         <v>0</v>
@@ -5421,7 +5433,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G217">
         <v>0</v>
@@ -5429,7 +5441,7 @@
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B218">
         <v>0</v>
@@ -5438,13 +5450,13 @@
         <v>0</v>
       </c>
       <c r="D218">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E218">
         <v>0</v>
       </c>
       <c r="F218">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G218">
         <v>1</v>
@@ -5452,22 +5464,22 @@
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B219">
         <v>4</v>
       </c>
       <c r="C219">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D219">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E219">
         <v>2</v>
       </c>
       <c r="F219">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G219">
         <v>1</v>
@@ -5481,16 +5493,16 @@
         <v>2</v>
       </c>
       <c r="C220">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D220">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E220">
         <v>1</v>
       </c>
       <c r="F220">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G220">
         <v>1</v>
@@ -5521,7 +5533,7 @@
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B222">
         <v>0</v>
@@ -5530,13 +5542,13 @@
         <v>0</v>
       </c>
       <c r="D222">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E222">
         <v>2</v>
       </c>
       <c r="F222">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G222">
         <v>0</v>
@@ -5544,7 +5556,7 @@
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B223">
         <v>2</v>
@@ -5553,7 +5565,7 @@
         <v>0</v>
       </c>
       <c r="D223">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E223">
         <v>2</v>
@@ -5576,7 +5588,7 @@
         <v>0</v>
       </c>
       <c r="D224">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E224">
         <v>1</v>
@@ -5593,19 +5605,19 @@
         <v>4</v>
       </c>
       <c r="B225">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C225">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D225">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E225">
         <v>1</v>
       </c>
       <c r="F225">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G225">
         <v>1</v>
@@ -5613,22 +5625,22 @@
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B226">
         <v>2</v>
       </c>
       <c r="C226">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D226">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E226">
         <v>1</v>
       </c>
       <c r="F226">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G226">
         <v>1</v>
@@ -5645,13 +5657,13 @@
         <v>0</v>
       </c>
       <c r="D227">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E227">
         <v>2</v>
       </c>
       <c r="F227">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G227">
         <v>0</v>
@@ -5659,7 +5671,7 @@
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B228">
         <v>2</v>
@@ -5668,13 +5680,13 @@
         <v>0</v>
       </c>
       <c r="D228">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E228">
         <v>2</v>
       </c>
       <c r="F228">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G228">
         <v>0</v>
@@ -5682,7 +5694,7 @@
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B229">
         <v>2</v>
@@ -5705,7 +5717,7 @@
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B230">
         <v>2</v>
@@ -5714,13 +5726,13 @@
         <v>0</v>
       </c>
       <c r="D230">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E230">
         <v>2</v>
       </c>
       <c r="F230">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G230">
         <v>1</v>
@@ -5728,22 +5740,22 @@
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B231">
         <v>2</v>
       </c>
       <c r="C231">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D231">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E231">
         <v>1</v>
       </c>
       <c r="F231">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G231">
         <v>1</v>
@@ -5760,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="D232">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E232">
         <v>2</v>
@@ -5774,7 +5786,7 @@
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B233">
         <v>0</v>
@@ -5783,7 +5795,7 @@
         <v>1</v>
       </c>
       <c r="D233">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E233">
         <v>0</v>
@@ -5800,19 +5812,19 @@
         <v>2</v>
       </c>
       <c r="B234">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C234">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D234">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E234">
         <v>2</v>
       </c>
       <c r="F234">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G234">
         <v>1</v>
@@ -5820,7 +5832,7 @@
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B235">
         <v>2</v>
@@ -5829,7 +5841,7 @@
         <v>0</v>
       </c>
       <c r="D235">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E235">
         <v>2</v>
@@ -5849,10 +5861,10 @@
         <v>4</v>
       </c>
       <c r="C236">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D236">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E236">
         <v>2</v>
@@ -5866,7 +5878,7 @@
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B237">
         <v>2</v>
@@ -5875,13 +5887,13 @@
         <v>0</v>
       </c>
       <c r="D237">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E237">
         <v>2</v>
       </c>
       <c r="F237">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G237">
         <v>1</v>
@@ -5895,16 +5907,16 @@
         <v>4</v>
       </c>
       <c r="C238">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D238">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E238">
         <v>1</v>
       </c>
       <c r="F238">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G238">
         <v>1</v>
@@ -5918,10 +5930,10 @@
         <v>4</v>
       </c>
       <c r="C239">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D239">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E239">
         <v>2</v>
@@ -5935,22 +5947,22 @@
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B240">
         <v>2</v>
       </c>
       <c r="C240">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D240">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E240">
         <v>1</v>
       </c>
       <c r="F240">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G240">
         <v>1</v>
@@ -5958,13 +5970,13 @@
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B241">
         <v>3</v>
       </c>
       <c r="C241">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D241">
         <v>0</v>
@@ -5973,13 +5985,1923 @@
         <v>0</v>
       </c>
       <c r="F241">
+        <v>1</v>
+      </c>
+      <c r="G241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>3</v>
+      </c>
+      <c r="B242">
+        <v>0</v>
+      </c>
+      <c r="C242">
+        <v>3</v>
+      </c>
+      <c r="D242">
         <v>7</v>
       </c>
-      <c r="G241">
-        <v>0</v>
+      <c r="E242">
+        <v>2</v>
+      </c>
+      <c r="F242">
+        <v>4</v>
+      </c>
+      <c r="G242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>1</v>
+      </c>
+      <c r="B243">
+        <v>2</v>
+      </c>
+      <c r="C243">
+        <v>0</v>
+      </c>
+      <c r="D243">
+        <v>0</v>
+      </c>
+      <c r="E243">
+        <v>1</v>
+      </c>
+      <c r="F243">
+        <v>4</v>
+      </c>
+      <c r="G243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>4</v>
+      </c>
+      <c r="B244">
+        <v>4</v>
+      </c>
+      <c r="C244">
+        <v>6</v>
+      </c>
+      <c r="D244">
+        <v>0</v>
+      </c>
+      <c r="E244">
+        <v>2</v>
+      </c>
+      <c r="F244">
+        <v>0</v>
+      </c>
+      <c r="G244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>4</v>
+      </c>
+      <c r="B245">
+        <v>2</v>
+      </c>
+      <c r="C245">
+        <v>0</v>
+      </c>
+      <c r="D245">
+        <v>0</v>
+      </c>
+      <c r="E245">
+        <v>2</v>
+      </c>
+      <c r="F245">
+        <v>6</v>
+      </c>
+      <c r="G245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>3</v>
+      </c>
+      <c r="B246">
+        <v>0</v>
+      </c>
+      <c r="C246">
+        <v>1</v>
+      </c>
+      <c r="D246">
+        <v>6</v>
+      </c>
+      <c r="E246">
+        <v>0</v>
+      </c>
+      <c r="F246">
+        <v>0</v>
+      </c>
+      <c r="G246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>2</v>
+      </c>
+      <c r="B247">
+        <v>0</v>
+      </c>
+      <c r="C247">
+        <v>2</v>
+      </c>
+      <c r="D247">
+        <v>7</v>
+      </c>
+      <c r="E247">
+        <v>2</v>
+      </c>
+      <c r="F247">
+        <v>4</v>
+      </c>
+      <c r="G247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>1</v>
+      </c>
+      <c r="B248">
+        <v>2</v>
+      </c>
+      <c r="C248">
+        <v>0</v>
+      </c>
+      <c r="D248">
+        <v>9</v>
+      </c>
+      <c r="E248">
+        <v>1</v>
+      </c>
+      <c r="F248">
+        <v>4</v>
+      </c>
+      <c r="G248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>2</v>
+      </c>
+      <c r="B249">
+        <v>2</v>
+      </c>
+      <c r="C249">
+        <v>0</v>
+      </c>
+      <c r="D249">
+        <v>0</v>
+      </c>
+      <c r="E249">
+        <v>2</v>
+      </c>
+      <c r="F249">
+        <v>5</v>
+      </c>
+      <c r="G249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>3</v>
+      </c>
+      <c r="B250">
+        <v>2</v>
+      </c>
+      <c r="C250">
+        <v>5</v>
+      </c>
+      <c r="D250">
+        <v>9</v>
+      </c>
+      <c r="E250">
+        <v>1</v>
+      </c>
+      <c r="F250">
+        <v>4</v>
+      </c>
+      <c r="G250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>0</v>
+      </c>
+      <c r="B251">
+        <v>1</v>
+      </c>
+      <c r="C251">
+        <v>0</v>
+      </c>
+      <c r="D251">
+        <v>0</v>
+      </c>
+      <c r="E251">
+        <v>1</v>
+      </c>
+      <c r="F251">
+        <v>4</v>
+      </c>
+      <c r="G251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>0</v>
+      </c>
+      <c r="B252">
+        <v>2</v>
+      </c>
+      <c r="C252">
+        <v>0</v>
+      </c>
+      <c r="D252">
+        <v>8</v>
+      </c>
+      <c r="E252">
+        <v>2</v>
+      </c>
+      <c r="F252">
+        <v>5</v>
+      </c>
+      <c r="G252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>3</v>
+      </c>
+      <c r="B253">
+        <v>2</v>
+      </c>
+      <c r="C253">
+        <v>0</v>
+      </c>
+      <c r="D253">
+        <v>9</v>
+      </c>
+      <c r="E253">
+        <v>2</v>
+      </c>
+      <c r="F253">
+        <v>4</v>
+      </c>
+      <c r="G253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>3</v>
+      </c>
+      <c r="B254">
+        <v>4</v>
+      </c>
+      <c r="C254">
+        <v>6</v>
+      </c>
+      <c r="D254">
+        <v>9</v>
+      </c>
+      <c r="E254">
+        <v>1</v>
+      </c>
+      <c r="F254">
+        <v>4</v>
+      </c>
+      <c r="G254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>0</v>
+      </c>
+      <c r="B255">
+        <v>2</v>
+      </c>
+      <c r="C255">
+        <v>0</v>
+      </c>
+      <c r="D255">
+        <v>7</v>
+      </c>
+      <c r="E255">
+        <v>2</v>
+      </c>
+      <c r="F255">
+        <v>1</v>
+      </c>
+      <c r="G255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>3</v>
+      </c>
+      <c r="B256">
+        <v>2</v>
+      </c>
+      <c r="C256">
+        <v>0</v>
+      </c>
+      <c r="D256">
+        <v>6</v>
+      </c>
+      <c r="E256">
+        <v>0</v>
+      </c>
+      <c r="F256">
+        <v>2</v>
+      </c>
+      <c r="G256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>3</v>
+      </c>
+      <c r="B257">
+        <v>2</v>
+      </c>
+      <c r="C257">
+        <v>2</v>
+      </c>
+      <c r="D257">
+        <v>7</v>
+      </c>
+      <c r="E257">
+        <v>2</v>
+      </c>
+      <c r="F257">
+        <v>4</v>
+      </c>
+      <c r="G257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>1</v>
+      </c>
+      <c r="B258">
+        <v>0</v>
+      </c>
+      <c r="C258">
+        <v>0</v>
+      </c>
+      <c r="D258">
+        <v>0</v>
+      </c>
+      <c r="E258">
+        <v>0</v>
+      </c>
+      <c r="F258">
+        <v>2</v>
+      </c>
+      <c r="G258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>1</v>
+      </c>
+      <c r="B259">
+        <v>1</v>
+      </c>
+      <c r="C259">
+        <v>0</v>
+      </c>
+      <c r="D259">
+        <v>0</v>
+      </c>
+      <c r="E259">
+        <v>1</v>
+      </c>
+      <c r="F259">
+        <v>0</v>
+      </c>
+      <c r="G259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>4</v>
+      </c>
+      <c r="B260">
+        <v>2</v>
+      </c>
+      <c r="C260">
+        <v>0</v>
+      </c>
+      <c r="D260">
+        <v>7</v>
+      </c>
+      <c r="E260">
+        <v>2</v>
+      </c>
+      <c r="F260">
+        <v>0</v>
+      </c>
+      <c r="G260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>3</v>
+      </c>
+      <c r="B261">
+        <v>0</v>
+      </c>
+      <c r="C261">
+        <v>2</v>
+      </c>
+      <c r="D261">
+        <v>7</v>
+      </c>
+      <c r="E261">
+        <v>2</v>
+      </c>
+      <c r="F261">
+        <v>5</v>
+      </c>
+      <c r="G261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>1</v>
+      </c>
+      <c r="B262">
+        <v>0</v>
+      </c>
+      <c r="C262">
+        <v>0</v>
+      </c>
+      <c r="D262">
+        <v>0</v>
+      </c>
+      <c r="E262">
+        <v>0</v>
+      </c>
+      <c r="F262">
+        <v>5</v>
+      </c>
+      <c r="G262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>1</v>
+      </c>
+      <c r="B263">
+        <v>2</v>
+      </c>
+      <c r="C263">
+        <v>5</v>
+      </c>
+      <c r="D263">
+        <v>8</v>
+      </c>
+      <c r="E263">
+        <v>2</v>
+      </c>
+      <c r="F263">
+        <v>5</v>
+      </c>
+      <c r="G263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>4</v>
+      </c>
+      <c r="B264">
+        <v>4</v>
+      </c>
+      <c r="C264">
+        <v>5</v>
+      </c>
+      <c r="D264">
+        <v>8</v>
+      </c>
+      <c r="E264">
+        <v>2</v>
+      </c>
+      <c r="F264">
+        <v>1</v>
+      </c>
+      <c r="G264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>1</v>
+      </c>
+      <c r="B265">
+        <v>0</v>
+      </c>
+      <c r="C265">
+        <v>0</v>
+      </c>
+      <c r="D265">
+        <v>0</v>
+      </c>
+      <c r="E265">
+        <v>0</v>
+      </c>
+      <c r="F265">
+        <v>4</v>
+      </c>
+      <c r="G265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>2</v>
+      </c>
+      <c r="B266">
+        <v>0</v>
+      </c>
+      <c r="C266">
+        <v>1</v>
+      </c>
+      <c r="D266">
+        <v>6</v>
+      </c>
+      <c r="E266">
+        <v>0</v>
+      </c>
+      <c r="F266">
+        <v>2</v>
+      </c>
+      <c r="G266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>2</v>
+      </c>
+      <c r="B267">
+        <v>3</v>
+      </c>
+      <c r="C267">
+        <v>1</v>
+      </c>
+      <c r="D267">
+        <v>6</v>
+      </c>
+      <c r="E267">
+        <v>0</v>
+      </c>
+      <c r="F267">
+        <v>2</v>
+      </c>
+      <c r="G267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>2</v>
+      </c>
+      <c r="B268">
+        <v>2</v>
+      </c>
+      <c r="C268">
+        <v>0</v>
+      </c>
+      <c r="D268">
+        <v>7</v>
+      </c>
+      <c r="E268">
+        <v>2</v>
+      </c>
+      <c r="F268">
+        <v>4</v>
+      </c>
+      <c r="G268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>2</v>
+      </c>
+      <c r="B269">
+        <v>0</v>
+      </c>
+      <c r="C269">
+        <v>0</v>
+      </c>
+      <c r="D269">
+        <v>0</v>
+      </c>
+      <c r="E269">
+        <v>0</v>
+      </c>
+      <c r="F269">
+        <v>2</v>
+      </c>
+      <c r="G269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>2</v>
+      </c>
+      <c r="B270">
+        <v>0</v>
+      </c>
+      <c r="C270">
+        <v>1</v>
+      </c>
+      <c r="D270">
+        <v>6</v>
+      </c>
+      <c r="E270">
+        <v>0</v>
+      </c>
+      <c r="F270">
+        <v>2</v>
+      </c>
+      <c r="G270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>2</v>
+      </c>
+      <c r="B271">
+        <v>0</v>
+      </c>
+      <c r="C271">
+        <v>0</v>
+      </c>
+      <c r="D271">
+        <v>0</v>
+      </c>
+      <c r="E271">
+        <v>0</v>
+      </c>
+      <c r="F271">
+        <v>4</v>
+      </c>
+      <c r="G271">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>1</v>
+      </c>
+      <c r="B272">
+        <v>2</v>
+      </c>
+      <c r="C272">
+        <v>0</v>
+      </c>
+      <c r="D272">
+        <v>5</v>
+      </c>
+      <c r="E272">
+        <v>2</v>
+      </c>
+      <c r="F272">
+        <v>4</v>
+      </c>
+      <c r="G272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>3</v>
+      </c>
+      <c r="B273">
+        <v>0</v>
+      </c>
+      <c r="C273">
+        <v>1</v>
+      </c>
+      <c r="D273">
+        <v>6</v>
+      </c>
+      <c r="E273">
+        <v>0</v>
+      </c>
+      <c r="F273">
+        <v>2</v>
+      </c>
+      <c r="G273">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>1</v>
+      </c>
+      <c r="B274">
+        <v>3</v>
+      </c>
+      <c r="C274">
+        <v>3</v>
+      </c>
+      <c r="D274">
+        <v>0</v>
+      </c>
+      <c r="E274">
+        <v>2</v>
+      </c>
+      <c r="F274">
+        <v>5</v>
+      </c>
+      <c r="G274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>2</v>
+      </c>
+      <c r="B275">
+        <v>2</v>
+      </c>
+      <c r="C275">
+        <v>0</v>
+      </c>
+      <c r="D275">
+        <v>8</v>
+      </c>
+      <c r="E275">
+        <v>2</v>
+      </c>
+      <c r="F275">
+        <v>2</v>
+      </c>
+      <c r="G275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>1</v>
+      </c>
+      <c r="B276">
+        <v>1</v>
+      </c>
+      <c r="C276">
+        <v>8</v>
+      </c>
+      <c r="D276">
+        <v>0</v>
+      </c>
+      <c r="E276">
+        <v>1</v>
+      </c>
+      <c r="F276">
+        <v>0</v>
+      </c>
+      <c r="G276">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>4</v>
+      </c>
+      <c r="B277">
+        <v>4</v>
+      </c>
+      <c r="C277">
+        <v>8</v>
+      </c>
+      <c r="D277">
+        <v>0</v>
+      </c>
+      <c r="E277">
+        <v>0</v>
+      </c>
+      <c r="F277">
+        <v>4</v>
+      </c>
+      <c r="G277">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>4</v>
+      </c>
+      <c r="B278">
+        <v>4</v>
+      </c>
+      <c r="C278">
+        <v>6</v>
+      </c>
+      <c r="D278">
+        <v>5</v>
+      </c>
+      <c r="E278">
+        <v>2</v>
+      </c>
+      <c r="F278">
+        <v>6</v>
+      </c>
+      <c r="G278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>4</v>
+      </c>
+      <c r="B279">
+        <v>2</v>
+      </c>
+      <c r="C279">
+        <v>5</v>
+      </c>
+      <c r="D279">
+        <v>8</v>
+      </c>
+      <c r="E279">
+        <v>2</v>
+      </c>
+      <c r="F279">
+        <v>5</v>
+      </c>
+      <c r="G279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>0</v>
+      </c>
+      <c r="B280">
+        <v>2</v>
+      </c>
+      <c r="C280">
+        <v>2</v>
+      </c>
+      <c r="D280">
+        <v>7</v>
+      </c>
+      <c r="E280">
+        <v>2</v>
+      </c>
+      <c r="F280">
+        <v>4</v>
+      </c>
+      <c r="G280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>1</v>
+      </c>
+      <c r="B281">
+        <v>2</v>
+      </c>
+      <c r="C281">
+        <v>1</v>
+      </c>
+      <c r="D281">
+        <v>0</v>
+      </c>
+      <c r="E281">
+        <v>0</v>
+      </c>
+      <c r="F281">
+        <v>1</v>
+      </c>
+      <c r="G281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>2</v>
+      </c>
+      <c r="B282">
+        <v>0</v>
+      </c>
+      <c r="C282">
+        <v>0</v>
+      </c>
+      <c r="D282">
+        <v>6</v>
+      </c>
+      <c r="E282">
+        <v>0</v>
+      </c>
+      <c r="F282">
+        <v>5</v>
+      </c>
+      <c r="G282">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>1</v>
+      </c>
+      <c r="B283">
+        <v>1</v>
+      </c>
+      <c r="C283">
+        <v>0</v>
+      </c>
+      <c r="D283">
+        <v>8</v>
+      </c>
+      <c r="E283">
+        <v>2</v>
+      </c>
+      <c r="F283">
+        <v>1</v>
+      </c>
+      <c r="G283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>0</v>
+      </c>
+      <c r="B284">
+        <v>0</v>
+      </c>
+      <c r="C284">
+        <v>0</v>
+      </c>
+      <c r="D284">
+        <v>6</v>
+      </c>
+      <c r="E284">
+        <v>0</v>
+      </c>
+      <c r="F284">
+        <v>4</v>
+      </c>
+      <c r="G284">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>1</v>
+      </c>
+      <c r="B285">
+        <v>3</v>
+      </c>
+      <c r="C285">
+        <v>0</v>
+      </c>
+      <c r="D285">
+        <v>0</v>
+      </c>
+      <c r="E285">
+        <v>0</v>
+      </c>
+      <c r="F285">
+        <v>1</v>
+      </c>
+      <c r="G285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>2</v>
+      </c>
+      <c r="B286">
+        <v>2</v>
+      </c>
+      <c r="C286">
+        <v>5</v>
+      </c>
+      <c r="D286">
+        <v>1</v>
+      </c>
+      <c r="E286">
+        <v>2</v>
+      </c>
+      <c r="F286">
+        <v>5</v>
+      </c>
+      <c r="G286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>4</v>
+      </c>
+      <c r="B287">
+        <v>2</v>
+      </c>
+      <c r="C287">
+        <v>5</v>
+      </c>
+      <c r="D287">
+        <v>8</v>
+      </c>
+      <c r="E287">
+        <v>2</v>
+      </c>
+      <c r="F287">
+        <v>2</v>
+      </c>
+      <c r="G287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>1</v>
+      </c>
+      <c r="B288">
+        <v>0</v>
+      </c>
+      <c r="C288">
+        <v>0</v>
+      </c>
+      <c r="D288">
+        <v>0</v>
+      </c>
+      <c r="E288">
+        <v>0</v>
+      </c>
+      <c r="F288">
+        <v>4</v>
+      </c>
+      <c r="G288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>1</v>
+      </c>
+      <c r="B289">
+        <v>2</v>
+      </c>
+      <c r="C289">
+        <v>0</v>
+      </c>
+      <c r="D289">
+        <v>6</v>
+      </c>
+      <c r="E289">
+        <v>2</v>
+      </c>
+      <c r="F289">
+        <v>4</v>
+      </c>
+      <c r="G289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>4</v>
+      </c>
+      <c r="B290">
+        <v>2</v>
+      </c>
+      <c r="C290">
+        <v>5</v>
+      </c>
+      <c r="D290">
+        <v>8</v>
+      </c>
+      <c r="E290">
+        <v>2</v>
+      </c>
+      <c r="F290">
+        <v>0</v>
+      </c>
+      <c r="G290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>0</v>
+      </c>
+      <c r="B291">
+        <v>3</v>
+      </c>
+      <c r="C291">
+        <v>0</v>
+      </c>
+      <c r="D291">
+        <v>7</v>
+      </c>
+      <c r="E291">
+        <v>2</v>
+      </c>
+      <c r="F291">
+        <v>4</v>
+      </c>
+      <c r="G291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>4</v>
+      </c>
+      <c r="B292">
+        <v>2</v>
+      </c>
+      <c r="C292">
+        <v>5</v>
+      </c>
+      <c r="D292">
+        <v>8</v>
+      </c>
+      <c r="E292">
+        <v>2</v>
+      </c>
+      <c r="F292">
+        <v>5</v>
+      </c>
+      <c r="G292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>0</v>
+      </c>
+      <c r="B293">
+        <v>4</v>
+      </c>
+      <c r="C293">
+        <v>6</v>
+      </c>
+      <c r="D293">
+        <v>0</v>
+      </c>
+      <c r="E293">
+        <v>2</v>
+      </c>
+      <c r="F293">
+        <v>5</v>
+      </c>
+      <c r="G293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>2</v>
+      </c>
+      <c r="B294">
+        <v>0</v>
+      </c>
+      <c r="C294">
+        <v>0</v>
+      </c>
+      <c r="D294">
+        <v>7</v>
+      </c>
+      <c r="E294">
+        <v>2</v>
+      </c>
+      <c r="F294">
+        <v>4</v>
+      </c>
+      <c r="G294">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>2</v>
+      </c>
+      <c r="B295">
+        <v>0</v>
+      </c>
+      <c r="C295">
+        <v>0</v>
+      </c>
+      <c r="D295">
+        <v>0</v>
+      </c>
+      <c r="E295">
+        <v>0</v>
+      </c>
+      <c r="F295">
+        <v>4</v>
+      </c>
+      <c r="G295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>2</v>
+      </c>
+      <c r="B296">
+        <v>0</v>
+      </c>
+      <c r="C296">
+        <v>0</v>
+      </c>
+      <c r="D296">
+        <v>6</v>
+      </c>
+      <c r="E296">
+        <v>2</v>
+      </c>
+      <c r="F296">
+        <v>4</v>
+      </c>
+      <c r="G296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>2</v>
+      </c>
+      <c r="B297">
+        <v>2</v>
+      </c>
+      <c r="C297">
+        <v>0</v>
+      </c>
+      <c r="D297">
+        <v>8</v>
+      </c>
+      <c r="E297">
+        <v>2</v>
+      </c>
+      <c r="F297">
+        <v>5</v>
+      </c>
+      <c r="G297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>2</v>
+      </c>
+      <c r="B298">
+        <v>0</v>
+      </c>
+      <c r="C298">
+        <v>0</v>
+      </c>
+      <c r="D298">
+        <v>6</v>
+      </c>
+      <c r="E298">
+        <v>0</v>
+      </c>
+      <c r="F298">
+        <v>0</v>
+      </c>
+      <c r="G298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>1</v>
+      </c>
+      <c r="B299">
+        <v>2</v>
+      </c>
+      <c r="C299">
+        <v>5</v>
+      </c>
+      <c r="D299">
+        <v>8</v>
+      </c>
+      <c r="E299">
+        <v>2</v>
+      </c>
+      <c r="F299">
+        <v>5</v>
+      </c>
+      <c r="G299">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>2</v>
+      </c>
+      <c r="B300">
+        <v>0</v>
+      </c>
+      <c r="C300">
+        <v>0</v>
+      </c>
+      <c r="D300">
+        <v>6</v>
+      </c>
+      <c r="E300">
+        <v>0</v>
+      </c>
+      <c r="F300">
+        <v>5</v>
+      </c>
+      <c r="G300">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>1</v>
+      </c>
+      <c r="B301">
+        <v>2</v>
+      </c>
+      <c r="C301">
+        <v>0</v>
+      </c>
+      <c r="D301">
+        <v>8</v>
+      </c>
+      <c r="E301">
+        <v>2</v>
+      </c>
+      <c r="F301">
+        <v>2</v>
+      </c>
+      <c r="G301">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>3</v>
+      </c>
+      <c r="B302">
+        <v>4</v>
+      </c>
+      <c r="C302">
+        <v>5</v>
+      </c>
+      <c r="D302">
+        <v>8</v>
+      </c>
+      <c r="E302">
+        <v>2</v>
+      </c>
+      <c r="F302">
+        <v>1</v>
+      </c>
+      <c r="G302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>0</v>
+      </c>
+      <c r="B303">
+        <v>3</v>
+      </c>
+      <c r="C303">
+        <v>0</v>
+      </c>
+      <c r="D303">
+        <v>7</v>
+      </c>
+      <c r="E303">
+        <v>2</v>
+      </c>
+      <c r="F303">
+        <v>5</v>
+      </c>
+      <c r="G303">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <v>4</v>
+      </c>
+      <c r="B304">
+        <v>2</v>
+      </c>
+      <c r="C304">
+        <v>5</v>
+      </c>
+      <c r="D304">
+        <v>8</v>
+      </c>
+      <c r="E304">
+        <v>2</v>
+      </c>
+      <c r="F304">
+        <v>0</v>
+      </c>
+      <c r="G304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A305">
+        <v>0</v>
+      </c>
+      <c r="B305">
+        <v>3</v>
+      </c>
+      <c r="C305">
+        <v>0</v>
+      </c>
+      <c r="D305">
+        <v>6</v>
+      </c>
+      <c r="E305">
+        <v>0</v>
+      </c>
+      <c r="F305">
+        <v>1</v>
+      </c>
+      <c r="G305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <v>2</v>
+      </c>
+      <c r="B306">
+        <v>0</v>
+      </c>
+      <c r="C306">
+        <v>0</v>
+      </c>
+      <c r="D306">
+        <v>0</v>
+      </c>
+      <c r="E306">
+        <v>0</v>
+      </c>
+      <c r="F306">
+        <v>5</v>
+      </c>
+      <c r="G306">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <v>2</v>
+      </c>
+      <c r="B307">
+        <v>2</v>
+      </c>
+      <c r="C307">
+        <v>2</v>
+      </c>
+      <c r="D307">
+        <v>5</v>
+      </c>
+      <c r="E307">
+        <v>2</v>
+      </c>
+      <c r="F307">
+        <v>0</v>
+      </c>
+      <c r="G307">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A308">
+        <v>1</v>
+      </c>
+      <c r="B308">
+        <v>4</v>
+      </c>
+      <c r="C308">
+        <v>6</v>
+      </c>
+      <c r="D308">
+        <v>8</v>
+      </c>
+      <c r="E308">
+        <v>2</v>
+      </c>
+      <c r="F308">
+        <v>5</v>
+      </c>
+      <c r="G308">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A309">
+        <v>0</v>
+      </c>
+      <c r="B309">
+        <v>2</v>
+      </c>
+      <c r="C309">
+        <v>0</v>
+      </c>
+      <c r="D309">
+        <v>8</v>
+      </c>
+      <c r="E309">
+        <v>2</v>
+      </c>
+      <c r="F309">
+        <v>2</v>
+      </c>
+      <c r="G309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <v>2</v>
+      </c>
+      <c r="B310">
+        <v>0</v>
+      </c>
+      <c r="C310">
+        <v>0</v>
+      </c>
+      <c r="D310">
+        <v>7</v>
+      </c>
+      <c r="E310">
+        <v>2</v>
+      </c>
+      <c r="F310">
+        <v>4</v>
+      </c>
+      <c r="G310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <v>1</v>
+      </c>
+      <c r="B311">
+        <v>3</v>
+      </c>
+      <c r="C311">
+        <v>0</v>
+      </c>
+      <c r="D311">
+        <v>4</v>
+      </c>
+      <c r="E311">
+        <v>2</v>
+      </c>
+      <c r="F311">
+        <v>4</v>
+      </c>
+      <c r="G311">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A312">
+        <v>1</v>
+      </c>
+      <c r="B312">
+        <v>2</v>
+      </c>
+      <c r="C312">
+        <v>5</v>
+      </c>
+      <c r="D312">
+        <v>3</v>
+      </c>
+      <c r="E312">
+        <v>2</v>
+      </c>
+      <c r="F312">
+        <v>1</v>
+      </c>
+      <c r="G312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A313">
+        <v>0</v>
+      </c>
+      <c r="B313">
+        <v>2</v>
+      </c>
+      <c r="C313">
+        <v>0</v>
+      </c>
+      <c r="D313">
+        <v>5</v>
+      </c>
+      <c r="E313">
+        <v>2</v>
+      </c>
+      <c r="F313">
+        <v>4</v>
+      </c>
+      <c r="G313">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <v>4</v>
+      </c>
+      <c r="B314">
+        <v>2</v>
+      </c>
+      <c r="C314">
+        <v>5</v>
+      </c>
+      <c r="D314">
+        <v>3</v>
+      </c>
+      <c r="E314">
+        <v>2</v>
+      </c>
+      <c r="F314">
+        <v>0</v>
+      </c>
+      <c r="G314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A315">
+        <v>0</v>
+      </c>
+      <c r="B315">
+        <v>2</v>
+      </c>
+      <c r="C315">
+        <v>0</v>
+      </c>
+      <c r="D315">
+        <v>9</v>
+      </c>
+      <c r="E315">
+        <v>2</v>
+      </c>
+      <c r="F315">
+        <v>6</v>
+      </c>
+      <c r="G315">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <v>0</v>
+      </c>
+      <c r="B316">
+        <v>2</v>
+      </c>
+      <c r="C316">
+        <v>6</v>
+      </c>
+      <c r="D316">
+        <v>2</v>
+      </c>
+      <c r="E316">
+        <v>2</v>
+      </c>
+      <c r="F316">
+        <v>4</v>
+      </c>
+      <c r="G316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A317">
+        <v>0</v>
+      </c>
+      <c r="B317">
+        <v>4</v>
+      </c>
+      <c r="C317">
+        <v>5</v>
+      </c>
+      <c r="D317">
+        <v>0</v>
+      </c>
+      <c r="E317">
+        <v>2</v>
+      </c>
+      <c r="F317">
+        <v>2</v>
+      </c>
+      <c r="G317">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A318">
+        <v>4</v>
+      </c>
+      <c r="B318">
+        <v>2</v>
+      </c>
+      <c r="C318">
+        <v>0</v>
+      </c>
+      <c r="D318">
+        <v>6</v>
+      </c>
+      <c r="E318">
+        <v>2</v>
+      </c>
+      <c r="F318">
+        <v>0</v>
+      </c>
+      <c r="G318">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A319">
+        <v>0</v>
+      </c>
+      <c r="B319">
+        <v>0</v>
+      </c>
+      <c r="C319">
+        <v>0</v>
+      </c>
+      <c r="D319">
+        <v>0</v>
+      </c>
+      <c r="E319">
+        <v>0</v>
+      </c>
+      <c r="F319">
+        <v>5</v>
+      </c>
+      <c r="G319">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A320">
+        <v>2</v>
+      </c>
+      <c r="B320">
+        <v>2</v>
+      </c>
+      <c r="C320">
+        <v>0</v>
+      </c>
+      <c r="D320">
+        <v>0</v>
+      </c>
+      <c r="E320">
+        <v>2</v>
+      </c>
+      <c r="F320">
+        <v>0</v>
+      </c>
+      <c r="G320">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A321">
+        <v>2</v>
+      </c>
+      <c r="B321">
+        <v>4</v>
+      </c>
+      <c r="C321">
+        <v>5</v>
+      </c>
+      <c r="D321">
+        <v>9</v>
+      </c>
+      <c r="E321">
+        <v>2</v>
+      </c>
+      <c r="F321">
+        <v>0</v>
+      </c>
+      <c r="G321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A322">
+        <v>0</v>
+      </c>
+      <c r="B322">
+        <v>2</v>
+      </c>
+      <c r="C322">
+        <v>3</v>
+      </c>
+      <c r="D322">
+        <v>6</v>
+      </c>
+      <c r="E322">
+        <v>0</v>
+      </c>
+      <c r="F322">
+        <v>1</v>
+      </c>
+      <c r="G322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A323">
+        <v>1</v>
+      </c>
+      <c r="B323">
+        <v>3</v>
+      </c>
+      <c r="C323">
+        <v>0</v>
+      </c>
+      <c r="D323">
+        <v>6</v>
+      </c>
+      <c r="E323">
+        <v>0</v>
+      </c>
+      <c r="F323">
+        <v>1</v>
+      </c>
+      <c r="G323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A324">
+        <v>1</v>
+      </c>
+      <c r="B324">
+        <v>2</v>
+      </c>
+      <c r="C324">
+        <v>5</v>
+      </c>
+      <c r="D324">
+        <v>9</v>
+      </c>
+      <c r="E324">
+        <v>1</v>
+      </c>
+      <c r="F324">
+        <v>4</v>
+      </c>
+      <c r="G324">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H241" xr:uid="{B6F609AC-FEB5-4751-90A6-F9986429DF76}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>